--- a/vbai-fhir/CodeSystem-checked-unchecked.xlsx
+++ b/vbai-fhir/CodeSystem-checked-unchecked.xlsx
@@ -263,10 +263,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-checked-unchecked.xlsx
+++ b/vbai-fhir/CodeSystem-checked-unchecked.xlsx
@@ -263,10 +263,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-checked-unchecked.xlsx
+++ b/vbai-fhir/CodeSystem-checked-unchecked.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -263,10 +263,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-checked-unchecked.xlsx
+++ b/vbai-fhir/CodeSystem-checked-unchecked.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire enrollment condition codes</t>
+    <t>Enrollment Status Codes for Questionnaires</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The codes required for Questionnaire enrollment</t>
+    <t>This code system defines the status codes used to indicate the enrollment condition in questionnaires.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/vbai-fhir/CodeSystem-checked-unchecked.xlsx
+++ b/vbai-fhir/CodeSystem-checked-unchecked.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/vbai-fhir/CodeSystem-checked-unchecked.xlsx
+++ b/vbai-fhir/CodeSystem-checked-unchecked.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
